--- a/biology/Zoologie/Coryllis_des_Philippines/Coryllis_des_Philippines.xlsx
+++ b/biology/Zoologie/Coryllis_des_Philippines/Coryllis_des_Philippines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Loriculus philippensis
 Le Coryllis des Philippines (Loriculus philippensis), ou loricule des Philippines est une espèce de psittacidé endémique des Philippines.
@@ -512,7 +524,9 @@
           <t>Histoire de l'espèce</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite sous le nom scientifique de Psittacus philippensis, en 1776, par Philipp Ludwig Statius Müller grâce à un spécimen capturé sur l'île de Luçon.
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,7 +585,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippines, dont l'archipel des Sulu.
 </t>
@@ -600,7 +618,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cette espèce comprend onze sous-espèces :
 Loriculus philippensis philippensis Statius Müller, des îles de Luçon, Polillo, Marinduque, Catanduanes et Banton.
@@ -642,6 +662,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -668,6 +690,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +717,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sous-espèces de Cebu et de Siquijor sont probablement éteintes.
 </t>
@@ -726,11 +752,50 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noms vernaculaires
-Dans son aire de répartition, l'oiseau porte les noms de colasisi (parfois utilisé comme nom anglais de l'espèce), kolasisi, kusi, kolansi, bullilising.
-Protection
-Philatélie
-Cette espèce a été représentée en 1984 sur un timbre des Philippines.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son aire de répartition, l'oiseau porte les noms de colasisi (parfois utilisé comme nom anglais de l'espèce), kolasisi, kusi, kolansi, bullilising.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coryllis_des_Philippines</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coryllis_des_Philippines</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>L'animal et l'homme</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été représentée en 1984 sur un timbre des Philippines.
 </t>
         </is>
       </c>
